--- a/secteur-action-publique/justice/departements/barometre-resultats-justice-departements-synthese.xlsx
+++ b/secteur-action-publique/justice/departements/barometre-resultats-justice-departements-synthese.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="316">
   <si>
     <t>mesure</t>
   </si>
@@ -164,7 +164,7 @@
     <t>Lutter contre la récidive par une meilleure insertion professionnelle des condamnés</t>
   </si>
   <si>
-    <t>Postes de travail d'intérêt général proposés en tant que peine</t>
+    <t>Postes de travail d’intérêt général proposés sur l’ensemble du territoire national en tant que peine</t>
   </si>
   <si>
     <t>nb-postes-tig</t>
@@ -479,6 +479,30 @@
     <t>232.0</t>
   </si>
   <si>
+    <t>Simplifier l’accès à l’aide juridictionnelle</t>
+  </si>
+  <si>
+    <t>Nombre de demandes d'aide juridictionnelle formulées par voie dématérialisée</t>
+  </si>
+  <si>
+    <t>nb-aide-juridictionnelle-dematerialisee</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>% des demandes *</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
@@ -651,6 +675,9 @@
   </si>
   <si>
     <t>388.0</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
   <si>
     <t>57</t>
@@ -1626,19 +1653,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F2" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -1724,19 +1751,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F2" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -4232,7 +4259,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4321,6 +4348,38 @@
       </c>
       <c r="O2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4394,19 +4453,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -4492,19 +4551,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -4590,19 +4649,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -4786,19 +4845,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -4884,19 +4943,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -4982,19 +5041,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -5080,19 +5139,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -5178,19 +5237,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -5276,19 +5335,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -5374,19 +5433,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -5472,10 +5531,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
         <v>47</v>
@@ -5570,19 +5629,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -5668,19 +5727,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -5876,19 +5935,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -5974,19 +6033,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -6072,19 +6131,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -6170,10 +6229,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -6268,19 +6327,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -6366,19 +6425,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -6400,7 +6459,7 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6464,19 +6523,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -6489,6 +6548,38 @@
       </c>
       <c r="O2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -6562,19 +6653,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -6660,19 +6751,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -6856,19 +6947,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -6954,19 +7045,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -7052,19 +7143,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -7150,19 +7241,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -7248,19 +7339,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -7346,19 +7437,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -7444,19 +7535,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -7542,19 +7633,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -7640,19 +7731,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -7738,19 +7829,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -7934,19 +8025,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -8032,19 +8123,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -8130,19 +8221,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -8228,19 +8319,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -8326,19 +8417,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -8424,19 +8515,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -8522,19 +8613,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -8620,19 +8711,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -8718,19 +8809,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -8816,19 +8907,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -9012,19 +9103,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -9110,19 +9201,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -9208,19 +9299,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -9306,19 +9397,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -9404,19 +9495,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -9502,10 +9593,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -9600,19 +9691,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -9698,19 +9789,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -9796,19 +9887,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -9894,10 +9985,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -10090,19 +10181,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -10188,19 +10279,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -10286,19 +10377,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="E2" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -10384,19 +10475,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -10482,10 +10573,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -10580,19 +10671,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -10678,19 +10769,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E2" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -10770,25 +10861,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F2" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -10802,19 +10893,19 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -10900,19 +10991,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F2" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -10998,19 +11089,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="E2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
